--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/57/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/57/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4424424424424425</v>
+        <v>0.7784778477847785</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1761.761761761762</v>
+        <v>1441.914191419142</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07277277277277278</v>
+        <v>0.05891589158915892</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9829829829829829</v>
+        <v>0.2607260726072607</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252.2522522522523</v>
+        <v>1953.635363536354</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.5155155155155</v>
+        <v>344.9144914491449</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>930.930930930931</v>
+        <v>206.2151215121512</v>
       </c>
     </row>
   </sheetData>
